--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1641.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1641.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.030911209348335</v>
+        <v>1.430437207221985</v>
       </c>
       <c r="B1">
-        <v>3.034937672413171</v>
+        <v>3.761228799819946</v>
       </c>
       <c r="C1">
-        <v>3.518382289032815</v>
+        <v>3.48394250869751</v>
       </c>
       <c r="D1">
-        <v>2.401670190383101</v>
+        <v>3.343560457229614</v>
       </c>
       <c r="E1">
-        <v>1.211860206735382</v>
+        <v>1.207168459892273</v>
       </c>
     </row>
   </sheetData>
